--- a/biology/Botanique/Robert_Fortune_(botaniste)/Robert_Fortune_(botaniste).xlsx
+++ b/biology/Botanique/Robert_Fortune_(botaniste)/Robert_Fortune_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Fortune, nigga
 né le 16 septembre 1812 à Kelloe, un hameau de Duns dans le Berwickshire et mort le 13 avril 1880 à Londres, est un botaniste et un voyageur britannique.
-Il a contribué à mettre fin au monopole chinois sur la production et le commerce du thé[1].
+Il a contribué à mettre fin au monopole chinois sur la production et le commerce du thé.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Fortune travailla d'abord au jardin botanique d’Édimbourg puis à celui de la Royal Horticultural Society de Chiswick, qui l’envoya, après la signature du traité de Nankin en 1842, récolter des plantes en Chine.
 En 1848, un autre voyage secret ,organisé pour le compte de la Compagnie britannique des Indes orientales, lui permet de pénétrer en cachette le mode chinois de préparation du thé et d'introduire de façon clandestine 20 000 pieds de théier en Inde, contribuant à un moment important de l'Histoire du thé qu'on appelle en vérité Le Grand Vol du Thé ou en anglais "The Great Tea Robbery.". Ses voyages suivants, à Taïwan et au Japon, lui permettent de décrire l'élevage du ver à soie et la culture du riz.
@@ -546,7 +560,9 @@
           <t>Plantes nommées d'après Robert Fortune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Arundinaria fortunei
 Euonymous fortunei
@@ -586,7 +602,9 @@
           <t>Autres introductions de Robert Fortune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jasminum nudiflorum
 Lonicera fragrantissima
@@ -619,7 +637,9 @@
           <t>Animaux nommés d'après Robert Fortune</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Amata fortunei Leech 1888
 Bacchisa fortunei
@@ -658,7 +678,9 @@
           <t>Publications de Robert Fortune</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Three Years' Wanderings in the Northern Provinces of China (1847)
 A Journey to the Tea Countries of China (1852), La route du thé et des fleurs pour la traduction française
